--- a/прайс/short.xlsx
+++ b/прайс/short.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="270">
   <si>
     <t>АП331А-2</t>
   </si>
@@ -758,6 +758,78 @@
   <si>
     <t>edit</t>
   </si>
+  <si>
+    <t>фото</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=500</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=501</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=502</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=503</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=504</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=505</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=506</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=507</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=508</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=509</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=510</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=511</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=512</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=513</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=514</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=515</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=516</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=517</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=518</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=519</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=520</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=521</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=522</t>
+  </si>
 </sst>
 </file>
 
@@ -766,7 +838,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_ð_._-;\-* #,##0.00_ð_._-;_-* &quot;-&quot;??_ð_._-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -783,6 +855,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -958,12 +1038,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1139,8 +1220,10 @@
     <xf numFmtId="4" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
     <cellStyle name="Финансовый 2" xfId="2"/>
@@ -1467,10 +1550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3358"/>
+  <dimension ref="A1:F3358"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33:F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1482,7 +1565,7 @@
     <col min="5" max="5" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>221</v>
       </c>
@@ -1498,8 +1581,11 @@
       <c r="E1" s="9" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>237</v>
       </c>
@@ -1515,8 +1601,11 @@
       <c r="E2" s="16" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="85" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>237</v>
       </c>
@@ -1532,8 +1621,11 @@
       <c r="E3" s="16" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="85" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>237</v>
       </c>
@@ -1547,8 +1639,11 @@
         <v>1</v>
       </c>
       <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="85" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>237</v>
       </c>
@@ -1564,8 +1659,11 @@
       <c r="E5" s="15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="85" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>237</v>
       </c>
@@ -1581,8 +1679,11 @@
       <c r="E6" s="18">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="85" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>237</v>
       </c>
@@ -1598,8 +1699,11 @@
       <c r="E7" s="18">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="85" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>237</v>
       </c>
@@ -1615,8 +1719,11 @@
       <c r="E8" s="18">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="85" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>237</v>
       </c>
@@ -1632,8 +1739,11 @@
       <c r="E9" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="85" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>237</v>
       </c>
@@ -1647,8 +1757,11 @@
         <v>1</v>
       </c>
       <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="85" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>237</v>
       </c>
@@ -1664,8 +1777,11 @@
       <c r="E11" s="18" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="85" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>237</v>
       </c>
@@ -1681,8 +1797,11 @@
       <c r="E12" s="18">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="85" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>237</v>
       </c>
@@ -1698,8 +1817,11 @@
       <c r="E13" s="18">
         <v>91</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="85" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>237</v>
       </c>
@@ -1713,8 +1835,11 @@
         <v>5</v>
       </c>
       <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="85" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>237</v>
       </c>
@@ -1728,8 +1853,11 @@
         <v>2</v>
       </c>
       <c r="E15" s="22"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="85" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>237</v>
       </c>
@@ -1746,7 +1874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>237</v>
       </c>
@@ -1763,7 +1891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>237</v>
       </c>
@@ -1780,7 +1908,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>237</v>
       </c>
@@ -1795,7 +1923,7 @@
       </c>
       <c r="E19" s="23"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>237</v>
       </c>
@@ -1810,7 +1938,7 @@
       </c>
       <c r="E20" s="23"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>237</v>
       </c>
@@ -1826,8 +1954,11 @@
       <c r="E21" s="23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="85" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>237</v>
       </c>
@@ -1841,8 +1972,11 @@
         <v>1150</v>
       </c>
       <c r="E22" s="23"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="85" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>237</v>
       </c>
@@ -1858,8 +1992,11 @@
       <c r="E23" s="23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="85" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>237</v>
       </c>
@@ -1874,7 +2011,7 @@
       </c>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>237</v>
       </c>
@@ -1889,7 +2026,7 @@
       </c>
       <c r="E25" s="23"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>237</v>
       </c>
@@ -1904,7 +2041,7 @@
       </c>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>238</v>
       </c>
@@ -1919,7 +2056,7 @@
       </c>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>238</v>
       </c>
@@ -1934,7 +2071,7 @@
       </c>
       <c r="E28" s="23"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>238</v>
       </c>
@@ -1951,7 +2088,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>238</v>
       </c>
@@ -1966,7 +2103,7 @@
       </c>
       <c r="E30" s="23"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>238</v>
       </c>
@@ -1981,7 +2118,7 @@
       </c>
       <c r="E31" s="23"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>238</v>
       </c>
@@ -1996,7 +2133,7 @@
       </c>
       <c r="E32" s="23"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>238</v>
       </c>
@@ -2010,8 +2147,11 @@
         <v>510</v>
       </c>
       <c r="E33" s="23"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="85" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>238</v>
       </c>
@@ -2027,8 +2167,11 @@
       <c r="E34" s="22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="85" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>238</v>
       </c>
@@ -2042,8 +2185,11 @@
         <v>38</v>
       </c>
       <c r="E35" s="23"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="85" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>238</v>
       </c>
@@ -2059,8 +2205,11 @@
       <c r="E36" s="22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="85" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>238</v>
       </c>
@@ -2076,8 +2225,11 @@
       <c r="E37" s="23" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" s="85" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>238</v>
       </c>
@@ -2093,8 +2245,11 @@
       <c r="E38" s="26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="85" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>238</v>
       </c>
@@ -2110,8 +2265,11 @@
       <c r="E39" s="26" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="85" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>238</v>
       </c>
@@ -2125,8 +2283,11 @@
         <v>19</v>
       </c>
       <c r="E40" s="23"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" s="85" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>238</v>
       </c>
@@ -2140,8 +2301,11 @@
         <v>30</v>
       </c>
       <c r="E41" s="23"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" s="85" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>238</v>
       </c>
@@ -2155,8 +2319,11 @@
         <v>1</v>
       </c>
       <c r="E42" s="23"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" s="85" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>238</v>
       </c>
@@ -2172,8 +2339,11 @@
       <c r="E43" s="23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" s="85" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>238</v>
       </c>
@@ -2187,8 +2357,11 @@
         <v>2</v>
       </c>
       <c r="E44" s="26"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" s="85" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>238</v>
       </c>
@@ -2204,8 +2377,11 @@
       <c r="E45" s="29" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" s="85" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>238</v>
       </c>
@@ -2221,8 +2397,11 @@
       <c r="E46" s="29" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" s="85" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>238</v>
       </c>
@@ -2236,8 +2415,11 @@
         <v>8</v>
       </c>
       <c r="E47" s="29"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" s="85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>238</v>
       </c>
@@ -2253,8 +2435,11 @@
       <c r="E48" s="23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="85" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>238</v>
       </c>
@@ -2268,8 +2453,11 @@
         <v>90</v>
       </c>
       <c r="E49" s="23"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="85" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>238</v>
       </c>
@@ -2285,8 +2473,11 @@
       <c r="E50" s="29" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" s="85" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>238</v>
       </c>
@@ -2302,8 +2493,11 @@
       <c r="E51" s="23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" s="85" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>238</v>
       </c>
@@ -2317,8 +2511,11 @@
         <v>16</v>
       </c>
       <c r="E52" s="23"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" s="85" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>238</v>
       </c>
@@ -2334,8 +2531,11 @@
       <c r="E53" s="23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" s="85" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>238</v>
       </c>
@@ -2351,8 +2551,11 @@
       <c r="E54" s="23">
         <v>81</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" s="85" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>238</v>
       </c>
@@ -2366,8 +2569,11 @@
         <v>23</v>
       </c>
       <c r="E55" s="23"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" s="85" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>238</v>
       </c>
@@ -2384,7 +2590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>238</v>
       </c>
@@ -2399,7 +2605,7 @@
       </c>
       <c r="E57" s="23"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>238</v>
       </c>
@@ -2414,7 +2620,7 @@
       </c>
       <c r="E58" s="23"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>238</v>
       </c>
@@ -2429,7 +2635,7 @@
       </c>
       <c r="E59" s="23"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>238</v>
       </c>
@@ -2444,7 +2650,7 @@
       </c>
       <c r="E60" s="22"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>238</v>
       </c>
@@ -2459,7 +2665,7 @@
       </c>
       <c r="E61" s="22"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>239</v>
       </c>
@@ -2474,7 +2680,7 @@
       </c>
       <c r="E62" s="22"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>239</v>
       </c>
@@ -2489,7 +2695,7 @@
       </c>
       <c r="E63" s="22"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>239</v>
       </c>
@@ -26806,7 +27012,19 @@
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3:F15" r:id="rId2" display="https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=500"/>
+    <hyperlink ref="F21" r:id="rId3"/>
+    <hyperlink ref="F22:F23" r:id="rId4" display="https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=500"/>
+    <hyperlink ref="F33" r:id="rId5"/>
+    <hyperlink ref="F34:F42" r:id="rId6" display="https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=500"/>
+    <hyperlink ref="F43" r:id="rId7" display="https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=500"/>
+    <hyperlink ref="F44:F50" r:id="rId8" display="https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=500"/>
+    <hyperlink ref="F51" r:id="rId9" display="https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=500"/>
+    <hyperlink ref="F52:F55" r:id="rId10" display="https://images.pexels.com/photos/414612/pexels-photo-414612.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=500"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>